--- a/biology/Médecine/Centre_hospitalier_La_Chartreuse/Centre_hospitalier_La_Chartreuse.xlsx
+++ b/biology/Médecine/Centre_hospitalier_La_Chartreuse/Centre_hospitalier_La_Chartreuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier La Chartreuse, situé à Villefranche-de-Rouergue, est un établissement public de santé à vocation polyvalente, dans différents secteurs d'activité, en médecine, chirurgie, gynécologie-obstétrique, soins de suite et de réadaptation, long séjour, maison de retraite. De plus, il travaille en collaboration avec l'hôpital Jacques-Puel situé à Rodez, à 50 kilomètres de La Chartreuse. 
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital d'aujourd'hui n'a plus rien à voir avec celui qui avait été installé il y a plusieurs décennies, en partie dans les bâtiments de l'ancienne Chartreuse Saint-Sauveur.
 En effet, les différents sites de l'établissement ont fait l'objet d'importantes rénovations depuis le début des années 1990 :
@@ -522,8 +536,8 @@
 1995 : rénovation de la maternité.
 1997 : construction du plateau technique réunissant les blocs opératoires, la radiologie et la stérilisation centrale.
 1999 : construction d'une blanchisserie et rénovation des parties communes de la maison de retraite du site de Rulhe.
-2001 : restructuration des consultations externes et télémédecine[1].
-2019 : nécessité d'un retour à l'équilibre financier[2].
+2001 : restructuration des consultations externes et télémédecine.
+2019 : nécessité d'un retour à l'équilibre financier.
 En janvier 2003, le centre hospitalier a racheté une ancienne clinique qui est devenue le site de Saint-Alain.
 Le centre hospitalier a satisfait à la procédure de certification menée en novembre 2006 par la Haute Autorité de santé (HAS) après une évaluation positive de ses conditions d'accueil et de soins[réf. souhaitée].
 Au-delà de ses équipements sanitaires, le centre hospitalier se distingue par son voisinage immédiat avec le monastère de la Chartreuse Saint Sauveur construit au milieu du XVe siècle, et dont il est le propriétaire.
@@ -557,8 +571,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Médecine
-Médecine générale
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Médecine générale
 Angiologie
 Cardiologie
 Cancérologie
@@ -575,9 +594,47 @@
 Anesthésie/Réanimation
 Urgences adultes et pédiatriques
 Laboratoire
-Imagerie médicale : scanner, etc.
-Chirurgie
-Chirurgie générale, viscérale
+Imagerie médicale : scanner, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_La_Chartreuse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_La_Chartreuse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Services médicaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Chirurgie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chirurgie générale, viscérale
 Chirurgie vasculaire
 Chirurgie digestive
 Chirurgie urologique
